--- a/data/vgp_database/Michoacan_Guanajuato_volcanic_field.xlsx
+++ b/data/vgp_database/Michoacan_Guanajuato_volcanic_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F1C2D-0CBB-6146-8E64-5DA5F03B0F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD1D47-DBD0-DC47-B546-CA5CC65B5C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="600" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
   <si>
     <t>Name:</t>
   </si>
@@ -284,37 +284,10 @@
     <t>Igneous:Extrusive</t>
   </si>
   <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.16</t>
-  </si>
-  <si>
     <t>Lava</t>
   </si>
   <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.17</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.18</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.19</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.20</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.21</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.22</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.23</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.24</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.22201/igf.00167169p.2009.4.25</t>
+    <t>10.22201/igf.00167169p.2009.4.16</t>
   </si>
 </sst>
 </file>
@@ -740,7 +713,7 @@
   <dimension ref="A1:AQ780"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9:AP18"/>
+      <selection activeCell="AP10" sqref="AP10:AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="AA9" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB9" s="40" t="s">
         <v>80</v>
@@ -1468,7 +1441,7 @@
       <c r="AN9" s="25"/>
       <c r="AO9" s="25"/>
       <c r="AP9" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ9" s="25"/>
     </row>
@@ -1534,7 +1507,7 @@
         <v>81</v>
       </c>
       <c r="AA10" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB10" s="40" t="s">
         <v>80</v>
@@ -1570,8 +1543,9 @@
       </c>
       <c r="AN10" s="26"/>
       <c r="AO10" s="26"/>
-      <c r="AP10" s="41" t="s">
-        <v>84</v>
+      <c r="AP10" s="41" t="str">
+        <f>AP9</f>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ10" s="26"/>
     </row>
@@ -1637,7 +1611,7 @@
         <v>81</v>
       </c>
       <c r="AA11" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB11" s="40" t="s">
         <v>80</v>
@@ -1673,8 +1647,9 @@
       </c>
       <c r="AN11" s="26"/>
       <c r="AO11" s="25"/>
-      <c r="AP11" s="41" t="s">
-        <v>85</v>
+      <c r="AP11" s="41" t="str">
+        <f t="shared" ref="AP11:AP18" si="0">AP10</f>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ11" s="25"/>
     </row>
@@ -1736,7 +1711,7 @@
         <v>81</v>
       </c>
       <c r="AA12" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB12" s="40" t="s">
         <v>80</v>
@@ -1774,8 +1749,9 @@
       </c>
       <c r="AN12" s="25"/>
       <c r="AO12" s="25"/>
-      <c r="AP12" s="41" t="s">
-        <v>86</v>
+      <c r="AP12" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ12" s="25"/>
     </row>
@@ -1841,7 +1817,7 @@
         <v>81</v>
       </c>
       <c r="AA13" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB13" s="40" t="s">
         <v>80</v>
@@ -1877,8 +1853,9 @@
       </c>
       <c r="AN13" s="25"/>
       <c r="AO13" s="25"/>
-      <c r="AP13" s="41" t="s">
-        <v>87</v>
+      <c r="AP13" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ13" s="25"/>
     </row>
@@ -1944,7 +1921,7 @@
         <v>81</v>
       </c>
       <c r="AA14" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB14" s="40" t="s">
         <v>80</v>
@@ -1980,8 +1957,9 @@
       </c>
       <c r="AN14" s="25"/>
       <c r="AO14" s="25"/>
-      <c r="AP14" s="41" t="s">
-        <v>88</v>
+      <c r="AP14" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ14" s="25"/>
     </row>
@@ -2049,7 +2027,7 @@
         <v>81</v>
       </c>
       <c r="AA15" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB15" s="40" t="s">
         <v>80</v>
@@ -2085,8 +2063,9 @@
       </c>
       <c r="AN15" s="25"/>
       <c r="AO15" s="25"/>
-      <c r="AP15" s="41" t="s">
-        <v>89</v>
+      <c r="AP15" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ15" s="25"/>
     </row>
@@ -2154,7 +2133,7 @@
         <v>81</v>
       </c>
       <c r="AA16" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB16" s="40" t="s">
         <v>80</v>
@@ -2190,8 +2169,9 @@
       </c>
       <c r="AN16" s="25"/>
       <c r="AO16" s="25"/>
-      <c r="AP16" s="41" t="s">
-        <v>90</v>
+      <c r="AP16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ16" s="25"/>
     </row>
@@ -2259,7 +2239,7 @@
         <v>81</v>
       </c>
       <c r="AA17" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB17" s="40" t="s">
         <v>80</v>
@@ -2295,8 +2275,9 @@
       </c>
       <c r="AN17" s="25"/>
       <c r="AO17" s="25"/>
-      <c r="AP17" s="41" t="s">
-        <v>91</v>
+      <c r="AP17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ17" s="25"/>
     </row>
@@ -2364,7 +2345,7 @@
         <v>81</v>
       </c>
       <c r="AA18" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB18" s="40" t="s">
         <v>80</v>
@@ -2400,8 +2381,9 @@
       </c>
       <c r="AN18" s="25"/>
       <c r="AO18" s="25"/>
-      <c r="AP18" s="41" t="s">
-        <v>92</v>
+      <c r="AP18" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.22201/igf.00167169p.2009.4.16</v>
       </c>
       <c r="AQ18" s="25"/>
     </row>
@@ -36640,8 +36622,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AP9" r:id="rId1" xr:uid="{D223E96B-9FCA-C74A-A5BF-EB63B68370A2}"/>
-    <hyperlink ref="AP10:AP18" r:id="rId2" display="https://doi.org/10.22201/igf.00167169p.2009.4.16" xr:uid="{50850470-083F-B24D-9E19-FA788B5788BD}"/>
+    <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.22201/igf.00167169p.2009.4.16" xr:uid="{D223E96B-9FCA-C74A-A5BF-EB63B68370A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
